--- a/tests.xlsx
+++ b/tests.xlsx
@@ -14,26 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recommended Testing</t>
   </si>
   <si>
-    <t>ES146: Key Storage Drop Test</t>
-  </si>
-  <si>
-    <t>ANSI A156.5-6.3.3: Torque-Cyilinder Plug</t>
-  </si>
-  <si>
     <t>ES128: Cable Testing</t>
   </si>
   <si>
-    <t>MLTS 0017: 1588 Combo Lock Test</t>
-  </si>
-  <si>
-    <t>ASTM F883.10.2 Combination Padlock Cycle Test</t>
-  </si>
-  <si>
     <t>ES120: Wedge Test</t>
   </si>
   <si>
@@ -53,12 +41,6 @@
   </si>
   <si>
     <t>ASTM F883.11.1: Wet Freezing</t>
-  </si>
-  <si>
-    <t>MLTS 0014: Bagged Thermal Cycle Test</t>
-  </si>
-  <si>
-    <t>ES 121: Logo Adhesion</t>
   </si>
 </sst>
 </file>
@@ -399,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,36 +432,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
